--- a/примеры + рекомендации/Пример решения ДЕМО/Ресурсы/Организаторы_import/организаторы.xlsx
+++ b/примеры + рекомендации/Пример решения ДЕМО/Ресурсы/Организаторы_import/организаторы.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA77580D-3CC4-4530-A678-410B88132B8A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87D9262-F914-4AB6-839D-E90093A0DDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="25704" yWindow="4764" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>ФИО</t>
   </si>
@@ -46,9 +55,6 @@
     <t>пол</t>
   </si>
   <si>
-    <t>Воробьев Арсен Тимофеевич</t>
-  </si>
-  <si>
     <t>g4fjtzm3qyx9@mail.com</t>
   </si>
   <si>
@@ -61,12 +67,6 @@
     <t>foto1.jpg</t>
   </si>
   <si>
-    <t>мужской</t>
-  </si>
-  <si>
-    <t>Абрамова Любовь Никитична</t>
-  </si>
-  <si>
     <t>zu0gwy531d7m@mail.com</t>
   </si>
   <si>
@@ -79,12 +79,6 @@
     <t>foto2.jpg</t>
   </si>
   <si>
-    <t>женский</t>
-  </si>
-  <si>
-    <t>Лаврентьев Роман Дмитриевич</t>
-  </si>
-  <si>
     <t>nt0645em2brs@gmail.com</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>foto3.jpg</t>
   </si>
   <si>
-    <t>Никитин Ярослав Николаевич</t>
-  </si>
-  <si>
     <t>6agbfx0me5t7@outlook.com</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>foto4.jpg</t>
   </si>
   <si>
-    <t>Беспалов Александр Ярославович</t>
-  </si>
-  <si>
     <t>ouwhtq3eg2dm@tutanota.com</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>foto5.jpg</t>
   </si>
   <si>
-    <t>Вдовина Ольга Максимовна</t>
-  </si>
-  <si>
     <t>lpoj5qsnx0u1@outlook.com</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>foto6.jpg</t>
   </si>
   <si>
-    <t>Лаврова Ника Васильевна</t>
-  </si>
-  <si>
     <t>pt8c3oxv0lez@mail.com</t>
   </si>
   <si>
@@ -157,9 +139,6 @@
     <t>foto7.jpg</t>
   </si>
   <si>
-    <t>Громов Александр Александрович</t>
-  </si>
-  <si>
     <t>iob2epm3cv6a@yahoo.com</t>
   </si>
   <si>
@@ -172,9 +151,6 @@
     <t>foto8.jpg</t>
   </si>
   <si>
-    <t>Мартынов Роман Игоревич</t>
-  </si>
-  <si>
     <t>ygp7brlv8jn5@outlook.com</t>
   </si>
   <si>
@@ -187,9 +163,6 @@
     <t>foto9.jpg</t>
   </si>
   <si>
-    <t>Федоров Артемий Павлович</t>
-  </si>
-  <si>
     <t>54zo7qplir6y@outlook.com</t>
   </si>
   <si>
@@ -200,6 +173,90 @@
   </si>
   <si>
     <t>foto10.jpg</t>
+  </si>
+  <si>
+    <t>Воробьев</t>
+  </si>
+  <si>
+    <t>Арсен</t>
+  </si>
+  <si>
+    <t>Тимофеевич</t>
+  </si>
+  <si>
+    <t>Абрамова</t>
+  </si>
+  <si>
+    <t>Любовь</t>
+  </si>
+  <si>
+    <t>Никитична</t>
+  </si>
+  <si>
+    <t>Лаврентьев</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Дмитриевич</t>
+  </si>
+  <si>
+    <t>Никитин</t>
+  </si>
+  <si>
+    <t>Ярослав</t>
+  </si>
+  <si>
+    <t>Николаевич</t>
+  </si>
+  <si>
+    <t>Беспалов</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Ярославович</t>
+  </si>
+  <si>
+    <t>Вдовина</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Максимовна</t>
+  </si>
+  <si>
+    <t>Лаврова</t>
+  </si>
+  <si>
+    <t>Ника</t>
+  </si>
+  <si>
+    <t>Васильевна</t>
+  </si>
+  <si>
+    <t>Громов</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>Мартынов</t>
+  </si>
+  <si>
+    <t>Игоревич</t>
+  </si>
+  <si>
+    <t>Федоров</t>
+  </si>
+  <si>
+    <t>Артемий</t>
+  </si>
+  <si>
+    <t>Павлович</t>
   </si>
 </sst>
 </file>
@@ -563,307 +620,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="G2" s="6">
+        <v>33016</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
-        <v>33016</v>
-      </c>
-      <c r="D2" s="1">
-        <v>96</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="6">
+        <v>31003</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6">
-        <v>31003</v>
-      </c>
-      <c r="D3" s="1">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6">
+        <v>33327</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6">
+        <v>32147</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6">
+        <v>30905</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2">
+        <v>32136</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2">
+        <v>35705</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2">
+        <v>34910</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2">
+        <v>29995</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30680</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6">
-        <v>33327</v>
-      </c>
-      <c r="D4" s="1">
-        <v>36</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="6">
-        <v>32147</v>
-      </c>
-      <c r="D5" s="1">
-        <v>98</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="6">
-        <v>30905</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2">
-        <v>32136</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2">
-        <v>35705</v>
-      </c>
-      <c r="D8" s="1">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="K11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2">
-        <v>34910</v>
-      </c>
-      <c r="D9" s="1">
-        <v>60</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2">
-        <v>29995</v>
-      </c>
-      <c r="D10" s="1">
-        <v>82</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="2">
-        <v>30680</v>
-      </c>
-      <c r="D11" s="1">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
